--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B0E7A-75A6-4F6B-AEDB-D3E1C6D7598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5893D8-2E73-4DD9-ACBE-9082BD3D2FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table Name</t>
   </si>
   <si>
-    <t>Additional  </t>
-  </si>
-  <si>
     <t>Clinical</t>
   </si>
   <si>
@@ -87,17 +84,44 @@
     <t>match</t>
   </si>
   <si>
-    <t>Diiference (SUM(txt records)-sum (source, source_nok))</t>
-  </si>
-  <si>
-    <t>distinct(source_nok)</t>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Mapping Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMOP CDM </t>
+  </si>
+  <si>
+    <t>Observation_Period</t>
+  </si>
+  <si>
+    <t>Care_Site</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>source_nok (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +256,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,10 +623,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -630,7 +676,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -638,226 +684,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,292 +1018,240 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="8" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>570117913</v>
-      </c>
-      <c r="C2">
-        <v>560702851</v>
-      </c>
-      <c r="D2">
-        <v>9415062</v>
-      </c>
-      <c r="F2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>983</v>
+      </c>
+      <c r="C2" s="2">
+        <v>983</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <f>SUM(C2,D2)</f>
-        <v>570117913</v>
-      </c>
-      <c r="H2" s="3" t="b">
-        <f>SUM(C2,E2)=B2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
+        <v>983</v>
+      </c>
+      <c r="G2" t="b">
         <f>B2=F2</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>B2-F2</f>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8111435</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8111435</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <f>SUM(C3,D3)</f>
+        <v>8111435</v>
+      </c>
+      <c r="G3" t="b">
+        <f>B3=F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>23631199</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20780959</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2850240</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4/B4*100</f>
+        <v>12.061343142174039</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM(C4,D4)</f>
+        <v>23631199</v>
+      </c>
+      <c r="G4" t="b">
+        <f>B4=F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>570117913</v>
+      </c>
+      <c r="C5">
+        <v>560702851</v>
+      </c>
+      <c r="D5">
+        <v>9415062</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E11" si="0">D5/B5*100</f>
+        <v>1.651423641551147</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5,D5)</f>
+        <v>570117913</v>
+      </c>
+      <c r="G5" t="b">
+        <f>B5=F5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2310313361</v>
+      </c>
+      <c r="C6">
+        <v>2257507363</v>
+      </c>
+      <c r="D6">
+        <v>52805998</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2856638796887432</v>
+      </c>
+      <c r="F6">
+        <f>SUM(C6,D6)</f>
+        <v>2310313361</v>
+      </c>
+      <c r="G6" t="b">
+        <f>B6=F6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2310313361</v>
-      </c>
-      <c r="C3">
-        <v>2257507363</v>
-      </c>
-      <c r="D3">
-        <v>53221462</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F10" si="0">SUM(C3,D3)</f>
-        <v>2310728825</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <f t="shared" ref="H3:H11" si="1">SUM(C3,E3)=B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <f t="shared" ref="I3:I11" si="2">B3=F3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>B3-F3</f>
-        <v>-415464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>2877457652</v>
+      </c>
+      <c r="C7">
+        <v>2819453221</v>
+      </c>
+      <c r="D7">
+        <v>58004431</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0158222297271187</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C7,D7)</f>
+        <v>2877457652</v>
+      </c>
+      <c r="G7" t="b">
+        <f>B7=F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2877457652</v>
-      </c>
-      <c r="C4">
-        <v>2819453221</v>
-      </c>
-      <c r="D4">
-        <v>58230058</v>
-      </c>
-      <c r="F4">
+      <c r="B8">
+        <v>208887059</v>
+      </c>
+      <c r="C8">
+        <v>206239841</v>
+      </c>
+      <c r="D8">
+        <v>2647218</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>2877683279</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>B4-F4</f>
-        <v>-225627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>1.2672963144164904</v>
+      </c>
+      <c r="F8">
+        <f>SUM(C8,D8)</f>
         <v>208887059</v>
       </c>
-      <c r="C5">
-        <v>206239841</v>
-      </c>
-      <c r="D5">
-        <v>2651430</v>
-      </c>
-      <c r="E5">
-        <v>2647218</v>
-      </c>
-      <c r="F5">
+      <c r="G8" t="b">
+        <f>B8=F8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>72704012</v>
+      </c>
+      <c r="C9">
+        <v>71269832</v>
+      </c>
+      <c r="D9">
+        <v>1434180</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>208891271</v>
-      </c>
-      <c r="G5" s="3">
-        <f>SUM(C5,E5)</f>
-        <v>208887059</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <f t="shared" si="1"/>
+        <v>1.9726284156093066</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C9,D9)</f>
+        <v>72704012</v>
+      </c>
+      <c r="G9" t="b">
+        <f>B9=F9</f>
         <v>1</v>
       </c>
-      <c r="I5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>B5-F5</f>
-        <v>-4212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>23631199</v>
-      </c>
-      <c r="C6">
-        <v>20780959</v>
-      </c>
-      <c r="D6">
-        <v>2850240</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>23631199</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f>B6-F6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>983</v>
-      </c>
-      <c r="C7" s="2">
-        <v>983</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>983</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f>B7-F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>72704012</v>
-      </c>
-      <c r="C8">
-        <v>71269832</v>
-      </c>
-      <c r="D8">
-        <v>1435159</v>
-      </c>
-      <c r="E8">
-        <v>1434180</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>72704991</v>
-      </c>
-      <c r="G8" s="3">
-        <f>SUM(C8,E8)</f>
-        <v>72704012</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>B8-F8</f>
-        <v>-979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8111435</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>B9-F9</f>
-        <v>8111435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
       </c>
       <c r="B10">
         <v>1754030570</v>
@@ -1486,98 +1260,122 @@
         <v>1725190371</v>
       </c>
       <c r="D10">
-        <v>28846820</v>
-      </c>
-      <c r="E10">
         <v>28840199</v>
       </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6442244219266944</v>
+      </c>
       <c r="F10">
+        <f>SUM(C10,D10)</f>
+        <v>1754030570</v>
+      </c>
+      <c r="G10" t="b">
+        <f>B10=F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2564567543</v>
+      </c>
+      <c r="C11">
+        <v>2514862688</v>
+      </c>
+      <c r="D11">
+        <v>49704855</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>1754037191</v>
-      </c>
-      <c r="G10" s="3">
-        <f>SUM(C10,E10)</f>
-        <v>1754030570</v>
-      </c>
-      <c r="H10" s="3" t="b">
-        <f t="shared" si="1"/>
+        <v>1.9381378796464006</v>
+      </c>
+      <c r="F11">
+        <f>SUM(C11,D11)</f>
+        <v>2564567543</v>
+      </c>
+      <c r="G11" t="b">
+        <f>B11=F11</f>
         <v>1</v>
       </c>
-      <c r="I10" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>B10-F10</f>
-        <v>-6621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2564567543</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2514862688</v>
-      </c>
-      <c r="D11" s="3">
-        <v>49705215</v>
-      </c>
-      <c r="E11" s="3">
-        <v>49704855</v>
-      </c>
-      <c r="F11" s="3">
-        <f>SUM(C11,D11)</f>
-        <v>2564567903</v>
-      </c>
-      <c r="G11" s="3">
-        <f>SUM(C11,E11)</f>
-        <v>2564567543</v>
-      </c>
-      <c r="H11" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>B11-F11</f>
-        <v>-360</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>8111435</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"SUM($C$11,$E$11)=$B$11"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524FF28-3A11-4EBE-9E83-632FCB135758}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5893D8-2E73-4DD9-ACBE-9082BD3D2FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B9835-0BD2-426B-A414-283D7D92D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Table Name</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>source_nok (%)</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Cdm</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Measurement, VisitOccurrence</t>
+  </si>
+  <si>
+    <t>ConditionOccurrence, VisitOccurrence</t>
+  </si>
+  <si>
+    <t>Observation, VisitOccurrence</t>
+  </si>
+  <si>
+    <t>Person, Death</t>
+  </si>
+  <si>
+    <t>DrugExposure, VisitOccurrence</t>
   </si>
 </sst>
 </file>
@@ -623,14 +647,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,7 +1033,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,11 +1085,11 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
-        <f>SUM(C2,D2)</f>
+        <f t="shared" ref="F2:F11" si="0">SUM(C2,D2)</f>
         <v>983</v>
       </c>
       <c r="G2" t="b">
-        <f>B2=F2</f>
+        <f t="shared" ref="G2:G11" si="1">B2=F2</f>
         <v>1</v>
       </c>
     </row>
@@ -1085,11 +1108,11 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <f>SUM(C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>8111435</v>
       </c>
       <c r="G3" t="b">
-        <f>B3=F3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1111,11 +1134,11 @@
         <v>12.061343142174039</v>
       </c>
       <c r="F4" s="4">
-        <f>SUM(C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>23631199</v>
       </c>
       <c r="G4" t="b">
-        <f>B4=F4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1132,16 +1155,16 @@
       <c r="D5">
         <v>9415062</v>
       </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:E11" si="0">D5/B5*100</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="2">D5/B5*100</f>
         <v>1.651423641551147</v>
       </c>
       <c r="F5">
-        <f>SUM(C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>570117913</v>
       </c>
       <c r="G5" t="b">
-        <f>B5=F5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1158,16 +1181,16 @@
       <c r="D6">
         <v>52805998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>2.2856638796887432</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.2856638796887432</v>
-      </c>
-      <c r="F6">
-        <f>SUM(C6,D6)</f>
         <v>2310313361</v>
       </c>
       <c r="G6" t="b">
-        <f>B6=F6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1184,16 +1207,16 @@
       <c r="D7">
         <v>58004431</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>2.0158222297271187</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>2.0158222297271187</v>
-      </c>
-      <c r="F7">
-        <f>SUM(C7,D7)</f>
         <v>2877457652</v>
       </c>
       <c r="G7" t="b">
-        <f>B7=F7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1210,16 +1233,16 @@
       <c r="D8">
         <v>2647218</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.2672963144164904</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.2672963144164904</v>
-      </c>
-      <c r="F8">
-        <f>SUM(C8,D8)</f>
         <v>208887059</v>
       </c>
       <c r="G8" t="b">
-        <f>B8=F8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1236,16 +1259,16 @@
       <c r="D9">
         <v>1434180</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1.9726284156093066</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.9726284156093066</v>
-      </c>
-      <c r="F9">
-        <f>SUM(C9,D9)</f>
         <v>72704012</v>
       </c>
       <c r="G9" t="b">
-        <f>B9=F9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1262,16 +1285,16 @@
       <c r="D10">
         <v>28840199</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1.6442244219266944</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.6442244219266944</v>
-      </c>
-      <c r="F10">
-        <f>SUM(C10,D10)</f>
         <v>1754030570</v>
       </c>
       <c r="G10" t="b">
-        <f>B10=F10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1288,16 +1311,16 @@
       <c r="D11">
         <v>49704855</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1.9381378796464006</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.9381378796464006</v>
-      </c>
-      <c r="F11">
-        <f>SUM(C11,D11)</f>
         <v>2564567543</v>
       </c>
       <c r="G11" t="b">
-        <f>B11=F11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1368,14 +1391,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524FF28-3A11-4EBE-9E83-632FCB135758}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B9835-0BD2-426B-A414-283D7D92D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D56884D-57DE-490B-81C4-E85005BDBA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="cdm_gold_202207" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$G$11</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Table Name</t>
   </si>
@@ -139,6 +140,15 @@
   </si>
   <si>
     <t>DrugExposure, VisitOccurrence</t>
+  </si>
+  <si>
+    <t>sum of person</t>
+  </si>
+  <si>
+    <t>sum of METADATA_TMP (invalid person)</t>
+  </si>
+  <si>
+    <t>equal to source</t>
   </si>
 </sst>
 </file>
@@ -647,13 +657,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -699,7 +710,127 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1030,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1175,11 @@
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1201,17 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1141,8 +1282,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" t="b">
+        <f>(H4+I4)=C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1246,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1338,12 +1483,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1375,12 +1520,22 @@
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1390,6 +1545,289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BA76B-EF3E-4B18-A59D-5F6664D02424}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>986</v>
+      </c>
+      <c r="C2" s="2">
+        <v>986</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <f>C2+D2</f>
+        <v>986</v>
+      </c>
+      <c r="G2" t="b">
+        <f t="shared" ref="G2:G11" si="0">B2=F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8754859</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8754859</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="1">C3+D3</f>
+        <v>8754859</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>23885781</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21021242</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2864539</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>23885781</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>578034720</v>
+      </c>
+      <c r="C5">
+        <v>568510278</v>
+      </c>
+      <c r="D5">
+        <v>9524442</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>578034720</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2354959151</v>
+      </c>
+      <c r="C6">
+        <v>2301408122</v>
+      </c>
+      <c r="D6">
+        <v>53551029</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>2354959151</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2943654048</v>
+      </c>
+      <c r="C7">
+        <v>2884592040</v>
+      </c>
+      <c r="D7">
+        <v>59062008</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>2943654048</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>213243764</v>
+      </c>
+      <c r="C8">
+        <v>210561722</v>
+      </c>
+      <c r="D8">
+        <v>2682042</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>213243764</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>73303663</v>
+      </c>
+      <c r="C9">
+        <v>71860342</v>
+      </c>
+      <c r="D9">
+        <v>1443321</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>73303663</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1798730666</v>
+      </c>
+      <c r="C10">
+        <v>1769202816</v>
+      </c>
+      <c r="D10">
+        <v>29527850</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>1798730666</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2618366934</v>
+      </c>
+      <c r="C11">
+        <v>2567782498</v>
+      </c>
+      <c r="D11">
+        <v>50584436</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>2618366934</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524FF28-3A11-4EBE-9E83-632FCB135758}">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D56884D-57DE-490B-81C4-E85005BDBA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B376C-F767-4759-84DA-A14E3DF529DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>

--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B376C-F767-4759-84DA-A14E3DF529DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B489E4E-A6C4-47B8-A467-34A8AEEE718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Table Name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Mapping Result</t>
-  </si>
-  <si>
     <t xml:space="preserve">OMOP CDM </t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
     <t>Provider</t>
   </si>
   <si>
@@ -142,13 +136,46 @@
     <t>DrugExposure, VisitOccurrence</t>
   </si>
   <si>
-    <t>sum of person</t>
-  </si>
-  <si>
-    <t>sum of METADATA_TMP (invalid person)</t>
-  </si>
-  <si>
-    <t>equal to source</t>
+    <t>metadata_tmp</t>
+  </si>
+  <si>
+    <t>DRUG_EXPOSURE</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>OBSERVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDURE_OCCURRENCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRUG_ERA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITION_ERA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVICE_EXPOSURE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEASUREMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITION_OCCURRENCE </t>
+  </si>
+  <si>
+    <t>unique id</t>
+  </si>
+  <si>
+    <t>match with source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISIT_DETAIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISIT_OCCURRENCE </t>
   </si>
 </sst>
 </file>
@@ -304,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +520,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,14 +696,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -710,7 +753,87 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1161,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,11 +1298,10 @@
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1201,17 +1323,8 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1282,12 +1395,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" t="b">
-        <f>(H4+I4)=C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1469,73 +1578,288 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>983</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" t="b">
+        <f>B15=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>8111435</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" t="b">
+        <f>B17=B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16958587</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7" t="b">
+        <f>(B18+B19)=C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3822372</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>8111435</v>
+      <c r="B20">
+        <v>16958587</v>
+      </c>
+      <c r="C20">
+        <v>16958587</v>
+      </c>
+      <c r="E20" t="b">
+        <f>B20=C20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>2931924267</v>
+      </c>
+      <c r="C21">
+        <v>2931924267</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" ref="E21:E30" si="3">B21=C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>2456764849</v>
+      </c>
+      <c r="C22">
+        <v>2456764849</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>300159460</v>
+      </c>
+      <c r="C23">
+        <v>300159460</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>788920159</v>
+      </c>
+      <c r="C24">
+        <v>788920159</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>556867696</v>
+      </c>
+      <c r="C25">
+        <v>556867696</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>102369503</v>
+      </c>
+      <c r="C26">
+        <v>102369503</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1972413526</v>
+      </c>
+      <c r="C27">
+        <v>1972413526</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>726221233</v>
+      </c>
+      <c r="C28">
+        <v>726221233</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>2146392139</v>
+      </c>
+      <c r="C29">
+        <v>2146392139</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>1905296731</v>
+      </c>
+      <c r="C30">
+        <v>1905296731</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="D18:D19"/>
+  </mergeCells>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E30">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E30">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1546,9 +1870,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BA76B-EF3E-4B18-A59D-5F6664D02424}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1577,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1668,7 +1992,7 @@
       <c r="D5">
         <v>9524442</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>578034720</v>
       </c>
@@ -1690,7 +2014,7 @@
       <c r="D6">
         <v>53551029</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>2354959151</v>
       </c>
@@ -1712,7 +2036,7 @@
       <c r="D7">
         <v>59062008</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>2943654048</v>
       </c>
@@ -1734,7 +2058,7 @@
       <c r="D8">
         <v>2682042</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>213243764</v>
       </c>
@@ -1756,7 +2080,7 @@
       <c r="D9">
         <v>1443321</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>73303663</v>
       </c>
@@ -1778,7 +2102,7 @@
       <c r="D10">
         <v>29527850</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>1798730666</v>
       </c>
@@ -1800,7 +2124,7 @@
       <c r="D11">
         <v>50584436</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>2618366934</v>
       </c>
@@ -1809,17 +2133,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1843,10 +2164,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B489E4E-A6C4-47B8-A467-34A8AEEE718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5831B81-4951-44AA-8B0B-F450118CA444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23835" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
     <sheet name="cdm_gold_202207" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="cdm_gold_202201_new" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$G$11</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>Table Name</t>
   </si>
@@ -176,6 +177,112 @@
   </si>
   <si>
     <t xml:space="preserve">VISIT_OCCURRENCE </t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>CDM database creation</t>
+  </si>
+  <si>
+    <t>Lookup creation 
+(Provider, CareSites, Location)</t>
+  </si>
+  <si>
+    <t>Map All Patients</t>
+  </si>
+  <si>
+    <t>Create Chunks</t>
+  </si>
+  <si>
+    <t>Conversion to CDM</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Adding index in CDM</t>
+  </si>
+  <si>
+    <t>Data Loading</t>
+  </si>
+  <si>
+    <t>Create indexes for data cleaning</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>Create indexes for mapping</t>
+  </si>
+  <si>
+    <t>Data loading</t>
+  </si>
+  <si>
+    <t>create day suppy tables</t>
+  </si>
+  <si>
+    <t>create indexes</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Provider, CareSites, Location</t>
+  </si>
+  <si>
+    <t>Patients, Observational Period, Metadata</t>
+  </si>
+  <si>
+    <t>Create indexes in Patients, Observational Period</t>
+  </si>
+  <si>
+    <t>Map by chunk</t>
+  </si>
+  <si>
+    <t>Create cdm indexes</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>&lt;2 days</t>
+  </si>
+  <si>
+    <t>Mapping sequence</t>
+  </si>
+  <si>
+    <t>CareSite</t>
+  </si>
+  <si>
+    <t>Person, Observation Period, metadata_tmp</t>
+  </si>
+  <si>
+    <t>Visit Occurrence, Visit Detials</t>
+  </si>
+  <si>
+    <t>cdm_gold_202201</t>
+  </si>
+  <si>
+    <t>cdm_gold_202201_new</t>
+  </si>
+  <si>
+    <t>For person_id = 110001</t>
+  </si>
+  <si>
+    <t>chunk_id=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunk count </t>
   </si>
 </sst>
 </file>
@@ -331,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +809,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -704,10 +817,20 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -753,107 +876,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1286,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1661,7 @@
         <v>16958587</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="7" t="b">
+      <c r="D18" s="11" t="b">
         <f>(B18+B19)=C4</f>
         <v>1</v>
       </c>
@@ -1651,7 +1674,7 @@
         <v>3822372</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1789,7 +1812,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B29">
@@ -1804,7 +1827,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B30">
@@ -1824,42 +1847,42 @@
     <mergeCell ref="D18:D19"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E30">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E30">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1872,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BA76B-EF3E-4B18-A59D-5F6664D02424}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1907,7 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2135,12 +2158,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2150,19 +2173,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524FF28-3A11-4EBE-9E83-632FCB135758}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2170,7 +2199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2202,7 +2231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2218,16 +2247,650 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29CEFE6-8739-42DF-8663-0A1BDE438756}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>983</v>
+      </c>
+      <c r="C2" s="2">
+        <v>983</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F11" si="0">SUM(C2,D2)</f>
+        <v>983</v>
+      </c>
+      <c r="G2" t="b">
+        <f t="shared" ref="G2:G11" si="1">B2=F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8111435</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8111435</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>8111435</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>23631199</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <f>D4/B4*100</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>570117913</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="2">D5/B5*100</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2310313361</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2877457652</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>208887059</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>72704012</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1754030570</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2564567543</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>425</v>
+      </c>
+      <c r="C30" s="14">
+        <v>425</v>
+      </c>
+      <c r="E30">
+        <v>205842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>721</v>
+      </c>
+      <c r="C31">
+        <v>721</v>
+      </c>
+      <c r="E31">
+        <v>278232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>27035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>105</v>
+      </c>
+      <c r="C33">
+        <v>105</v>
+      </c>
+      <c r="E33">
+        <v>78682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>50109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>386</v>
+      </c>
+      <c r="C36">
+        <v>386</v>
+      </c>
+      <c r="E36">
+        <v>196310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>106</v>
+      </c>
+      <c r="C37">
+        <v>106</v>
+      </c>
+      <c r="E37">
+        <v>66545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>466</v>
+      </c>
+      <c r="C38">
+        <v>466</v>
+      </c>
+      <c r="E38">
+        <v>205842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>443</v>
+      </c>
+      <c r="C39">
+        <v>443</v>
+      </c>
+      <c r="E39">
+        <v>183863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>20781</v>
+      </c>
+      <c r="C41">
+        <v>16959</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE8658-BC79-48E6-9ECC-B5E538F48EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC89728-4EBB-47CE-9050-E1D063A4BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25635" yWindow="3690" windowWidth="25140" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,9 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="cdm_gold_202201_new" sheetId="4" r:id="rId4"/>
     <sheet name="cdm_gold_202301" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet2!$A$1:$B$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
   <si>
     <t>Table Name</t>
   </si>
@@ -295,63 +292,9 @@
     <t>For person_id = 410132</t>
   </si>
   <si>
-    <t>Review PK and indexes</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>additional</t>
-  </si>
-  <si>
-    <t>consultation</t>
-  </si>
-  <si>
-    <t>immunisation</t>
-  </si>
-  <si>
-    <t>referral</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>therapy</t>
-  </si>
-  <si>
-    <t>2020_07</t>
-  </si>
-  <si>
-    <t>2022_07</t>
-  </si>
-  <si>
-    <t>Drug_era</t>
-  </si>
-  <si>
-    <t>2022_01</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
     <t>Map All Death</t>
   </si>
   <si>
-    <t>Cdm Object</t>
-  </si>
-  <si>
-    <t>withinTheObservationPeriod</t>
-  </si>
-  <si>
     <t>1. Death</t>
   </si>
   <si>
@@ -383,13 +326,37 @@
   </si>
   <si>
     <t>withinTheObservationPeriod flag exists</t>
+  </si>
+  <si>
+    <t>Original ETLBuilder Logic</t>
+  </si>
+  <si>
+    <t>New Logic</t>
+  </si>
+  <si>
+    <t>Cdm Table</t>
+  </si>
+  <si>
+    <t>Map with consideration of ObservationPeriod</t>
+  </si>
+  <si>
+    <t>withinTheObservationPeriod flag</t>
+  </si>
+  <si>
+    <t>WithinTheObservationPeriod in App.config</t>
+  </si>
+  <si>
+    <t>Controlled by the parameter WithinTheObservationPeriod in App.config</t>
+  </si>
+  <si>
+    <t>Reject Death if coming before the start of observation period and after 3 months from the end of it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,20 +505,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,8 +735,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFDFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -929,6 +915,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -974,7 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -989,30 +1012,71 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1862,7 +1926,7 @@
         <v>16958587</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="13" t="b">
+      <c r="D18" s="22" t="b">
         <f>(B18+B19)=C4</f>
         <v>1</v>
       </c>
@@ -1875,7 +1939,7 @@
         <v>3822372</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2403,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524FF28-3A11-4EBE-9E83-632FCB135758}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2567,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -2599,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29CEFE6-8739-42DF-8663-0A1BDE438756}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2769,7 +2833,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
@@ -2780,7 +2844,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -2789,7 +2853,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +2869,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
@@ -2816,46 +2880,46 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="22"/>
       <c r="B24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -3174,279 +3238,198 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97ACBCA-5FCB-4E19-90CD-E63D4EDF1841}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>93</v>
       </c>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E609D6-CED1-4563-9069-3E8725544994}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2">
-        <v>848754959</v>
-      </c>
-      <c r="C2">
-        <v>788920159</v>
-      </c>
-      <c r="D2">
-        <v>797675024</v>
-      </c>
-      <c r="E2" s="12">
-        <f>(B2-C2)</f>
-        <v>59834800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>195</v>
-      </c>
-      <c r="C3">
-        <v>231</v>
-      </c>
-      <c r="D3">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF642C6-9286-4215-A492-E6C51B9FE602}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="D3:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC89728-4EBB-47CE-9050-E1D063A4BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E738005-522F-4E15-8A93-8E5E3E678CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25635" yWindow="3690" windowWidth="25140" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
     <sheet name="cdm_gold_202207" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="cdm_gold_202201_new" sheetId="4" r:id="rId4"/>
-    <sheet name="cdm_gold_202301" sheetId="5" r:id="rId5"/>
+    <sheet name="withinTheOP - cdm_gold_202301" sheetId="5" r:id="rId5"/>
+    <sheet name=" cdm_gold_202301" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$G$11</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="103">
   <si>
     <t>Table Name</t>
   </si>
@@ -283,9 +284,6 @@
     <t xml:space="preserve">chunk count </t>
   </si>
   <si>
-    <t>Death</t>
-  </si>
-  <si>
     <t>For person_id = 17361510980</t>
   </si>
   <si>
@@ -350,6 +348,9 @@
   </si>
   <si>
     <t>Reject Death if coming before the start of observation period and after 3 months from the end of it</t>
+  </si>
+  <si>
+    <t>DEATH</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1124,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1556,14 +1577,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
@@ -2108,7 +2129,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>1295079</v>
       </c>
       <c r="C31">
         <v>1295079</v>
@@ -2125,42 +2149,42 @@
     <mergeCell ref="D18:D19"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E30">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2174,7 +2198,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,12 +2474,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2468,7 +2492,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2591,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -2913,11 +2937,11 @@
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="23"/>
     </row>
@@ -3222,12 +3246,12 @@
     <mergeCell ref="F28:G28"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3240,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97ACBCA-5FCB-4E19-90CD-E63D4EDF1841}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,34 +3280,34 @@
     <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>54</v>
@@ -3292,15 +3316,15 @@
         <v>55</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
@@ -3310,12 +3334,12 @@
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
@@ -3328,7 +3352,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>54</v>
@@ -3341,7 +3365,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>54</v>
@@ -3354,7 +3378,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>54</v>
@@ -3367,7 +3391,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -3380,7 +3404,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
@@ -3393,7 +3417,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>54</v>
@@ -3406,7 +3430,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>54</v>
@@ -3433,4 +3457,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9920251-92DD-4DCD-8E77-3426B46002BC}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>986</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="b">
+        <f t="shared" ref="G2:G11" si="0">B2=F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9465692</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>24021212</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>583322141</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2387103254</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2992519365</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>216699289</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>73742167</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1831724330</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2654224728</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/CPRD Gold.xlsx
+++ b/reference/CPRD Gold.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ETL-CDMBuilder\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E738005-522F-4E15-8A93-8E5E3E678CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B735388F-0475-42E1-9AED-170B276CC30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1785" windowWidth="21900" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdm_gold_202201" sheetId="1" r:id="rId1"/>
     <sheet name="cdm_gold_202207" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="cdm_gold_202201_new" sheetId="4" r:id="rId4"/>
-    <sheet name="withinTheOP - cdm_gold_202301" sheetId="5" r:id="rId5"/>
-    <sheet name=" cdm_gold_202301" sheetId="6" r:id="rId6"/>
+    <sheet name="withinTheOP - cdm_gold_202301" sheetId="5" r:id="rId4"/>
+    <sheet name=" cdm_gold_202301" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cdm_gold_202201!$A$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
   <si>
     <t>Table Name</t>
   </si>
@@ -71,9 +72,6 @@
   </si>
   <si>
     <t>Therapy</t>
-  </si>
-  <si>
-    <t>Text records count</t>
   </si>
   <si>
     <t>source</t>
@@ -215,48 +213,6 @@
     <t>Data Loading</t>
   </si>
   <si>
-    <t>Create indexes for data cleaning</t>
-  </si>
-  <si>
-    <t>Data cleaning</t>
-  </si>
-  <si>
-    <t>Create indexes for mapping</t>
-  </si>
-  <si>
-    <t>Data loading</t>
-  </si>
-  <si>
-    <t>create day suppy tables</t>
-  </si>
-  <si>
-    <t>create indexes</t>
-  </si>
-  <si>
-    <t>Mapping</t>
-  </si>
-  <si>
-    <t>Provider, CareSites, Location</t>
-  </si>
-  <si>
-    <t>Patients, Observational Period, Metadata</t>
-  </si>
-  <si>
-    <t>Create indexes in Patients, Observational Period</t>
-  </si>
-  <si>
-    <t>Map by chunk</t>
-  </si>
-  <si>
-    <t>Create cdm indexes</t>
-  </si>
-  <si>
-    <t>8 days</t>
-  </si>
-  <si>
-    <t>&lt;2 days</t>
-  </si>
-  <si>
     <t>Mapping sequence</t>
   </si>
   <si>
@@ -269,27 +225,6 @@
     <t>Visit Occurrence, Visit Detials</t>
   </si>
   <si>
-    <t>cdm_gold_202201</t>
-  </si>
-  <si>
-    <t>cdm_gold_202201_new</t>
-  </si>
-  <si>
-    <t>For person_id = 110001</t>
-  </si>
-  <si>
-    <t>chunk_id=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chunk count </t>
-  </si>
-  <si>
-    <t>For person_id = 17361510980</t>
-  </si>
-  <si>
-    <t>For person_id = 410132</t>
-  </si>
-  <si>
     <t>Map All Death</t>
   </si>
   <si>
@@ -351,13 +286,61 @@
   </si>
   <si>
     <t>DEATH</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>tbl_name</t>
+  </si>
+  <si>
+    <t>CARE_SITE</t>
+  </si>
+  <si>
+    <t>CONDITION_ERA</t>
+  </si>
+  <si>
+    <t>CONDITION_OCCURRENCE</t>
+  </si>
+  <si>
+    <t>DEVICE_EXPOSURE</t>
+  </si>
+  <si>
+    <t>DOSE_ERA</t>
+  </si>
+  <si>
+    <t>DRUG_ERA</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>MEASUREMENT</t>
+  </si>
+  <si>
+    <t>OBSERVATION_PERIOD</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PROCEDURE_OCCURRENCE</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t>VISIT_DETAIL</t>
+  </si>
+  <si>
+    <t>VISIT_OCCURRENCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,12 +471,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -998,13 +975,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
@@ -1012,8 +988,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,62 +1006,54 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1124,17 +1100,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1252,16 +1218,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1578,12 +1534,12 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
@@ -1597,29 +1553,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="20">
         <v>983</v>
       </c>
       <c r="C2" s="2">
@@ -1639,10 +1595,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="20">
         <v>8111435</v>
       </c>
       <c r="C3" s="2">
@@ -1662,23 +1618,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="20">
         <v>23631199</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>20780959</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2850240</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>D4/B4*100</f>
         <v>12.061343142174039</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>23631199</v>
       </c>
@@ -1688,10 +1644,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20">
         <v>570117913</v>
       </c>
       <c r="C5">
@@ -1717,7 +1673,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>2310313361</v>
       </c>
       <c r="C6">
@@ -1743,7 +1699,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>2877457652</v>
       </c>
       <c r="C7">
@@ -1769,7 +1725,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>208887059</v>
       </c>
       <c r="C8">
@@ -1795,7 +1751,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>72704012</v>
       </c>
       <c r="C9">
@@ -1821,7 +1777,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>1754030570</v>
       </c>
       <c r="C10">
@@ -1847,7 +1803,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>2564567543</v>
       </c>
       <c r="C11">
@@ -1870,10 +1826,6 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>SUM(B5:B11)</f>
-        <v>10358078110</v>
-      </c>
       <c r="C12">
         <f>SUM(C5:C11)</f>
         <v>10155226167</v>
@@ -1882,89 +1834,89 @@
         <f>SUM(D5:D11)</f>
         <v>202851943</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f>D12/B12*100</f>
-        <v>1.9583936406519336</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
         <v>983</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" t="b">
         <f>B15=C2</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>8111435</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" t="b">
         <f>B17=B3</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
         <v>16958587</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="22" t="b">
+      <c r="C18" s="3"/>
+      <c r="D18" s="21" t="b">
         <f>(B18+B19)=C4</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
         <v>3822372</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>16958587</v>
@@ -1979,7 +1931,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>2931924267</v>
@@ -1994,7 +1946,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>2456764849</v>
@@ -2009,7 +1961,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>300159460</v>
@@ -2024,7 +1976,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>788920159</v>
@@ -2039,7 +1991,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>556867696</v>
@@ -2054,7 +2006,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>102369503</v>
@@ -2069,7 +2021,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>1972413526</v>
@@ -2084,7 +2036,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>726221233</v>
@@ -2098,8 +2050,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>44</v>
+      <c r="A29" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B29">
         <v>2146392139</v>
@@ -2113,8 +2065,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>45</v>
+      <c r="A30" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B30">
         <v>1905296731</v>
@@ -2129,7 +2081,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>1295079</v>
@@ -2148,44 +2100,36 @@
   <mergeCells count="1">
     <mergeCell ref="D18:D19"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E30">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E30">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BA76B-EF3E-4B18-A59D-5F6664D02424}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,29 +2161,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="20">
         <v>986</v>
       </c>
       <c r="C2" s="2">
@@ -2259,10 +2203,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="20">
         <v>8754859</v>
       </c>
       <c r="C3" s="2">
@@ -2282,20 +2226,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="20">
         <v>23885781</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>21021242</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2864539</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>23885781</v>
       </c>
@@ -2306,9 +2250,9 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20">
         <v>578034720</v>
       </c>
       <c r="C5">
@@ -2330,7 +2274,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>2354959151</v>
       </c>
       <c r="C6">
@@ -2352,7 +2296,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>2943654048</v>
       </c>
       <c r="C7">
@@ -2374,7 +2318,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>213243764</v>
       </c>
       <c r="C8">
@@ -2396,7 +2340,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>73303663</v>
       </c>
       <c r="C9">
@@ -2418,7 +2362,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>1798730666</v>
       </c>
       <c r="C10">
@@ -2440,7 +2384,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>2618366934</v>
       </c>
       <c r="C11">
@@ -2458,29 +2402,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>SUM(B5:B11)</f>
-        <v>10580292946</v>
-      </c>
-      <c r="C12">
-        <f>SUM(C5:C11)</f>
-        <v>10373917818</v>
-      </c>
-      <c r="D12">
-        <f>SUM(D5:D11)</f>
-        <v>206375128</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2492,7 +2420,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,10 +2437,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2520,15 +2448,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2536,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2552,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2560,7 +2488,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2568,113 +2496,113 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>56</v>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2684,583 +2612,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29CEFE6-8739-42DF-8663-0A1BDE438756}">
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>983</v>
-      </c>
-      <c r="C2" s="2">
-        <v>983</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8111435</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8111435</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>23631199</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <f>D4/B4*100</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>570117913</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E11" si="0">D5/B5*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2310313361</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2877457652</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>208887059</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>72704012</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1754030570</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2564567543</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>425</v>
-      </c>
-      <c r="C30" s="11">
-        <v>425</v>
-      </c>
-      <c r="E30">
-        <v>205842</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>352</v>
-      </c>
-      <c r="I30">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>721</v>
-      </c>
-      <c r="C31">
-        <v>721</v>
-      </c>
-      <c r="E31">
-        <v>278232</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>45</v>
-      </c>
-      <c r="I31">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>22</v>
-      </c>
-      <c r="E32">
-        <v>27035</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>27</v>
-      </c>
-      <c r="I32">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>105</v>
-      </c>
-      <c r="C33">
-        <v>105</v>
-      </c>
-      <c r="E33">
-        <v>78682</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>22</v>
-      </c>
-      <c r="I33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>85</v>
-      </c>
-      <c r="C34">
-        <v>85</v>
-      </c>
-      <c r="E34">
-        <v>50109</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>39</v>
-      </c>
-      <c r="I34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>11040</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>386</v>
-      </c>
-      <c r="C36">
-        <v>386</v>
-      </c>
-      <c r="E36">
-        <v>196310</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>79</v>
-      </c>
-      <c r="I36">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>106</v>
-      </c>
-      <c r="C37">
-        <v>106</v>
-      </c>
-      <c r="E37">
-        <v>66545</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>47</v>
-      </c>
-      <c r="I37">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>466</v>
-      </c>
-      <c r="C38">
-        <v>466</v>
-      </c>
-      <c r="E38">
-        <v>205842</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>86</v>
-      </c>
-      <c r="I38">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>443</v>
-      </c>
-      <c r="C39">
-        <v>443</v>
-      </c>
-      <c r="E39">
-        <v>183863</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>81</v>
-      </c>
-      <c r="I39">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41">
-        <v>20781</v>
-      </c>
-      <c r="C41">
-        <v>16959</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97ACBCA-5FCB-4E19-90CD-E63D4EDF1841}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3278,174 +2629,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="27"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>98</v>
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>101</v>
+      <c r="D3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3459,17 +2810,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9920251-92DD-4DCD-8E77-3426B46002BC}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
@@ -3483,32 +2834,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="20">
         <v>986</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>986</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3518,13 +2871,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="20">
         <v>9465692</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>9465692</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3534,16 +2889,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="20">
         <v>24021212</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="3">
+        <v>20731707</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3551,9 +2908,9 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20">
         <v>583322141</v>
       </c>
       <c r="G5" t="b">
@@ -3565,7 +2922,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>2387103254</v>
       </c>
       <c r="G6" t="b">
@@ -3577,7 +2934,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>2992519365</v>
       </c>
       <c r="G7" t="b">
@@ -3589,7 +2946,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>216699289</v>
       </c>
       <c r="G8" t="b">
@@ -3601,7 +2958,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>73742167</v>
       </c>
       <c r="G9" t="b">
@@ -3613,7 +2970,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>1831724330</v>
       </c>
       <c r="G10" t="b">
@@ -3625,7 +2982,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>2654224728</v>
       </c>
       <c r="G11" t="b">
@@ -3633,17 +2990,642 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>986</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
+        <v>9465692</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17216081</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19">
+        <f>B19+B20</f>
+        <v>20731707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3515626</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>2697088501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>1669864880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32">
+        <v>1323800</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDFD106-FC34-442C-88FC-484FA54F74A8}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="32">
+        <v>202201</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="D1" s="32">
+        <v>202207</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="G1" s="32">
+        <v>202301</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="J1" s="32">
+        <v>202007</v>
+      </c>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="20">
+        <v>983</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="20">
+        <v>986</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="20">
+        <v>986</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="20">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="20">
+        <v>556867696</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="20">
+        <v>576174176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="20">
+        <v>726221233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="20">
+        <v>709741636</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="20">
+        <v>703049443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1295079</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1307357</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1323801</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="20">
+        <v>102369503</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="20">
+        <v>103808339</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="20">
+        <v>2177615561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="20">
+        <v>788920159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="20">
+        <v>797675024</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="20">
+        <v>848754959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2456764849</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2502387372</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="20">
+        <v>2177615561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="20">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="20">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="20">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1972413526</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2005926114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="20">
+        <v>1713887469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2931924267</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3001261270</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="20">
+        <v>2668711716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="20">
+        <v>16958587</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="20">
+        <v>17054819</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="20">
+        <v>17216081</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="20">
+        <v>15662217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="20">
+        <v>16958587</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="20">
+        <v>17054819</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="20">
+        <v>17216081</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="20">
+        <v>15662217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="20">
+        <v>300159460</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="20">
+        <v>314176795</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="20">
+        <v>462173317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="20">
+        <v>8111435</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="20">
+        <v>8754859</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="20">
+        <v>9465692</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2146392139</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2181119686</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="20">
+        <v>1918704018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1905296731</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1933787768</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="20">
+        <v>1707044944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>(E15-B15)/B15 * 100</f>
+        <v>0.56745293696933596</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>